--- a/P4/Cuestionario SUS DIU.xlsx
+++ b/P4/Cuestionario SUS DIU.xlsx
@@ -583,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -697,24 +697,7 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thick">
-        <color rgb="FF0000FF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick">
-        <color rgb="FF00FF00"/>
-      </left>
+      <left style="thin"/>
       <right style="thin">
         <color rgb="FFCCCCCC"/>
       </right>
@@ -730,12 +713,56 @@
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="thick">
         <color rgb="FF00FF00"/>
       </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium">
+        <color rgb="FF81D41A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
@@ -809,7 +836,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -926,35 +953,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1032,7 +1071,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1058,11 +1097,11 @@
   </sheetPr>
   <dimension ref="A1:K1007"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.71"/>
@@ -1070,9 +1109,9 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="27.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="35.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="35.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1348,28 +1387,28 @@
         <v>47</v>
       </c>
       <c r="C14" s="27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="28" t="n">
         <f aca="false">C14-1</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="29" t="n">
+      <c r="G14" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="I14" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1386,22 +1425,22 @@
         <f aca="false">5-C15</f>
         <v>4</v>
       </c>
-      <c r="E15" s="29" t="n">
+      <c r="E15" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="29" t="n">
+      <c r="I15" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1412,28 +1451,28 @@
         <v>49</v>
       </c>
       <c r="C16" s="27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="28" t="n">
         <f aca="false">C16-1</f>
-        <v>4</v>
-      </c>
-      <c r="E16" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="E16" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="G16" s="30" t="n">
-        <v>4</v>
+      <c r="G16" s="31" t="n">
+        <v>5</v>
       </c>
       <c r="H16" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="I16" s="31" t="n">
+      <c r="I16" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="J16" s="18"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1450,22 +1489,22 @@
         <f aca="false">5-C17</f>
         <v>4</v>
       </c>
-      <c r="E17" s="29" t="n">
+      <c r="E17" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="30" t="n">
+      <c r="G17" s="31" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="I17" s="31" t="n">
+      <c r="I17" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="18"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1476,28 +1515,28 @@
         <v>51</v>
       </c>
       <c r="C18" s="27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" s="28" t="n">
         <f aca="false">C18-1</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="29" t="n">
+      <c r="F18" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="G18" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="I18" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" s="18"/>
+      <c r="I18" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" s="31"/>
       <c r="K18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1508,28 +1547,28 @@
         <v>52</v>
       </c>
       <c r="C19" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="28" t="n">
         <f aca="false">5-C19</f>
-        <v>4</v>
-      </c>
-      <c r="E19" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="F19" s="29" t="n">
+      <c r="G19" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="30" t="n">
+      <c r="H19" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" s="18"/>
+      <c r="I19" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="31"/>
       <c r="K19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1540,28 +1579,28 @@
         <v>53</v>
       </c>
       <c r="C20" s="27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="28" t="n">
         <f aca="false">C20-1</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="I20" s="31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" s="18"/>
+      <c r="I20" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" s="31"/>
       <c r="K20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1578,22 +1617,22 @@
         <f aca="false">5-C21</f>
         <v>4</v>
       </c>
-      <c r="E21" s="29" t="n">
+      <c r="E21" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="29" t="n">
+      <c r="G21" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="G21" s="30" t="n">
+      <c r="H21" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" s="31" t="n">
+      <c r="I21" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="18"/>
+      <c r="J21" s="31"/>
       <c r="K21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1604,28 +1643,28 @@
         <v>55</v>
       </c>
       <c r="C22" s="27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="28" t="n">
         <f aca="false">C22-1</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="29" t="n">
+      <c r="F22" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="F22" s="29" t="n">
+      <c r="I22" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="G22" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="H22" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="I22" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" s="18"/>
+      <c r="J22" s="31"/>
       <c r="K22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1636,28 +1675,28 @@
         <v>56</v>
       </c>
       <c r="C23" s="27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="28" t="n">
         <f aca="false">5-C23</f>
-        <v>3</v>
-      </c>
-      <c r="E23" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="F23" s="29" t="n">
+      <c r="F23" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="31" t="n">
         <v>4</v>
-      </c>
-      <c r="G23" s="30" t="n">
-        <v>1</v>
       </c>
       <c r="H23" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="18"/>
+      <c r="I23" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" s="31"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1665,51 +1704,51 @@
       <c r="B24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="32" t="n">
+      <c r="C24" s="35" t="n">
         <f aca="false">((C14-1)+(5-C15)+(C16-1)+(5-C17)+(C18-1)+(5-C19)+(C20-1)+(5-C21)+(C22-1)+(5-C23))*2.5</f>
-        <v>92.5</v>
-      </c>
-      <c r="D24" s="33" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D24" s="36" t="n">
         <f aca="false">(SUM(D14:D23))*2.5</f>
-        <v>92.5</v>
-      </c>
-      <c r="E24" s="34" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E24" s="37" t="n">
         <f aca="false">((E14-1)+(5-E15)+(E16-1)+(5-E17)+(E18-1)+(5-E19)+(E20-1)+(5-E21)+(E22-1)+(5-E23))*2.5</f>
         <v>60</v>
       </c>
-      <c r="F24" s="34" t="n">
+      <c r="F24" s="37" t="n">
         <f aca="false">((F14-1)+(5-F15)+(F16-1)+(5-F17)+(F18-1)+(5-F19)+(F20-1)+(5-F21)+(F22-1)+(5-F23))*2.5</f>
+        <v>90</v>
+      </c>
+      <c r="G24" s="38" t="n">
+        <f aca="false">((G14-1)+(5-G15)+(G16-1)+(5-G17)+(G18-1)+(5-G19)+(G20-1)+(5-G21)+(G22-1)+(5-G23))*2.5</f>
         <v>82.5</v>
       </c>
-      <c r="G24" s="35" t="n">
-        <f aca="false">((G14-1)+(5-G15)+(G16-1)+(5-G17)+(G18-1)+(5-G19)+(G20-1)+(5-G21)+(G22-1)+(5-G23))*2.5</f>
-        <v>77.5</v>
-      </c>
-      <c r="H24" s="36" t="n">
+      <c r="H24" s="39" t="n">
         <f aca="false">((H14-1)+(5-H15)+(H16-1)+(5-H17)+(H18-1)+(5-H19)+(H20-1)+(5-H21)+(H22-1)+(5-H23))*2.5</f>
         <v>60</v>
       </c>
-      <c r="I24" s="36" t="n">
+      <c r="I24" s="39" t="n">
         <f aca="false">((I14-1)+(5-I15)+(I16-1)+(5-I17)+(I18-1)+(5-I19)+(I20-1)+(5-I21)+(I22-1)+(5-I23))*2.5</f>
-        <v>90</v>
+        <v>92.5</v>
       </c>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="41"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="40" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1736,7 +1775,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="42" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2720,7 +2759,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" prompt="Enter a number between 1 and 5" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="C14:C23 E14:I23" type="decimal">
+    <dataValidation allowBlank="true" operator="between" prompt="Enter a number between 1 and 5" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="C14:C23 E14:J23" type="decimal">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
